--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/15/seed3/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.7243</v>
+        <v>-11.76</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>4.555899999999998</v>
+        <v>4.554199999999995</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.43890000000003</v>
+        <v>-22.40310000000001</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.47839999999999</v>
+        <v>-21.7761</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -607,7 +607,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.612400000000004</v>
+        <v>-7.975199999999998</v>
       </c>
       <c r="E10" t="n">
         <v>15.84</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.5386</v>
+        <v>-21.53349999999999</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.256299999999999</v>
+        <v>-7.265099999999999</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -658,7 +658,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-9.136699999999992</v>
+        <v>-9.264399999999997</v>
       </c>
       <c r="E13" t="n">
         <v>16.47</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.027500000000003</v>
+        <v>-8.008199999999999</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.731199999999996</v>
+        <v>4.839499999999993</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.48380000000001</v>
+        <v>16.58130000000001</v>
       </c>
     </row>
     <row r="17">
@@ -734,19 +734,19 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.72549999999999</v>
+        <v>-21.59799999999998</v>
       </c>
       <c r="B18" t="n">
-        <v>5.819599999999999</v>
+        <v>5.438699999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.06849999999999</v>
+        <v>-10.47519999999999</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>18.16570000000003</v>
+        <v>18.26140000000003</v>
       </c>
     </row>
     <row r="19">
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.11599999999999</v>
+        <v>-12.041</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.848800000000001</v>
+        <v>8.7471</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -814,7 +814,7 @@
         <v>-6.8</v>
       </c>
       <c r="E22" t="n">
-        <v>16.96540000000002</v>
+        <v>16.99280000000001</v>
       </c>
     </row>
     <row r="23">
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.2288</v>
+        <v>16.34179999999999</v>
       </c>
     </row>
     <row r="27">
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.19999999999999</v>
+        <v>-13.03999999999999</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -924,13 +924,13 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.0884</v>
+        <v>4.904300000000002</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.448999999999995</v>
+        <v>-7.484199999999995</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>4.813199999999999</v>
+        <v>4.869599999999998</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -958,10 +958,10 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.713399999999998</v>
+        <v>4.8678</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.49839999999999</v>
+        <v>-13.5707</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -981,7 +981,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-8.786999999999994</v>
+        <v>-8.928399999999996</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.757100000000001</v>
+        <v>-7.979</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.26879999999999</v>
+        <v>-19.69439999999999</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1080,7 +1080,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-13.21309999999999</v>
+        <v>-13.20439999999999</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.1728</v>
+        <v>16.3172</v>
       </c>
     </row>
     <row r="40">
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.514499999999991</v>
+        <v>9.428999999999995</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-11.8816</v>
+        <v>-11.8714</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.164700000000002</v>
+        <v>-8.235799999999999</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1182,13 +1182,13 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.25889999999998</v>
+        <v>-13.32349999999999</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.40219999999999</v>
+        <v>16.40339999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1233,7 +1233,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.393</v>
+        <v>-12.13</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.533799999999997</v>
+        <v>-7.382299999999998</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1270,7 +1270,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-8.277999999999997</v>
+        <v>-8.352000000000006</v>
       </c>
       <c r="E49" t="n">
         <v>16.49</v>
@@ -1281,13 +1281,13 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>5.056599999999999</v>
+        <v>5.461699999999996</v>
       </c>
       <c r="C50" t="n">
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-7.945799999999994</v>
+        <v>-7.990699999999995</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.17590000000001</v>
+        <v>17.2791</v>
       </c>
     </row>
     <row r="52">
@@ -1358,12 +1358,12 @@
         <v>-8.01</v>
       </c>
       <c r="E54" t="n">
-        <v>16.41</v>
+        <v>16.50180000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.96709999999999</v>
+        <v>-22.0423</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.301</v>
+        <v>-8.293399999999998</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.63109999999999</v>
+        <v>16.66099999999999</v>
       </c>
     </row>
     <row r="58">
@@ -1420,7 +1420,7 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-12.7854</v>
+        <v>-12.60749999999999</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>17.9445</v>
+        <v>18.16120000000001</v>
       </c>
     </row>
     <row r="64">
@@ -1539,7 +1539,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.5122</v>
+        <v>-12.3642</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.51090000000001</v>
+        <v>-21.51370000000001</v>
       </c>
       <c r="B68" t="n">
-        <v>4.476499999999999</v>
+        <v>4.540700000000002</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.184599999999994</v>
+        <v>-7.190199999999994</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.231</v>
+        <v>-12.13160000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>6.299699999999998</v>
+        <v>6.260699999999998</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.21939999999999</v>
+        <v>-20.11429999999998</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1749,12 +1749,12 @@
         <v>-6.2</v>
       </c>
       <c r="E77" t="n">
-        <v>18.64860000000002</v>
+        <v>18.58550000000002</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.99249999999999</v>
+        <v>-19.91679999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.91620000000002</v>
+        <v>-21.7906</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.720899999999998</v>
+        <v>-7.764199999999996</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.913</v>
+        <v>-21.9918</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.63560000000001</v>
+        <v>16.75230000000001</v>
       </c>
     </row>
     <row r="87">
@@ -1910,7 +1910,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>4.523699999999998</v>
+        <v>4.439399999999997</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1927,7 +1927,7 @@
         <v>-22.69</v>
       </c>
       <c r="B88" t="n">
-        <v>4.599799999999998</v>
+        <v>4.280599999999999</v>
       </c>
       <c r="C88" t="n">
         <v>-14.65</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-13.37899999999999</v>
+        <v>-13.1502</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.229799999999994</v>
+        <v>-6.256400000000001</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2032,7 +2032,7 @@
         <v>4.26</v>
       </c>
       <c r="C94" t="n">
-        <v>-10.2806</v>
+        <v>-10.201</v>
       </c>
       <c r="D94" t="n">
         <v>-5.14</v>
@@ -2049,7 +2049,7 @@
         <v>6.4</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.2459</v>
+        <v>-12.6326</v>
       </c>
       <c r="D95" t="n">
         <v>-6.44</v>
@@ -2063,7 +2063,7 @@
         <v>-20.86</v>
       </c>
       <c r="B96" t="n">
-        <v>5.518700000000006</v>
+        <v>5.604300000000002</v>
       </c>
       <c r="C96" t="n">
         <v>-10.59</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.25999999999999</v>
+        <v>16.26759999999999</v>
       </c>
     </row>
     <row r="97">
@@ -2097,7 +2097,7 @@
         <v>-21.08</v>
       </c>
       <c r="B98" t="n">
-        <v>5.457099999999998</v>
+        <v>5.686499999999999</v>
       </c>
       <c r="C98" t="n">
         <v>-13.95</v>
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>16.07749999999999</v>
+        <v>16.1579</v>
       </c>
     </row>
     <row r="99">
@@ -2148,10 +2148,10 @@
         <v>-19.85</v>
       </c>
       <c r="B101" t="n">
-        <v>9.476099999999995</v>
+        <v>9.454599999999994</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.63480000000001</v>
+        <v>-12.6007</v>
       </c>
       <c r="D101" t="n">
         <v>-7.34</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.697800000000008</v>
+        <v>8.756700000000006</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
